--- a/UFT Framework/TestData/CommonTestData.xlsx
+++ b/UFT Framework/TestData/CommonTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B49B0-C6EB-465C-B156-F6524121B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA28751-5AB2-464C-B7BD-73808C78AFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20160" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
